--- a/AutryMakers/AutryMakers.xlsx
+++ b/AutryMakers/AutryMakers.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\IT\IT Dept\Web\collaborations\American Art Collaborative\github\data\20171003\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="450" yWindow="465" windowWidth="20760" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="654">
   <si>
     <t>ObjectID</t>
   </si>
@@ -28,9 +33,15 @@
     <t>Nationality</t>
   </si>
   <si>
+    <t>ULAN_ID</t>
+  </si>
+  <si>
     <t>AutryMakerURL</t>
   </si>
   <si>
+    <t>MakerID</t>
+  </si>
+  <si>
     <t>2008.34.2</t>
   </si>
   <si>
@@ -535,6 +546,21 @@
     <t>http://collections.theautry.org/mwebcgi/mweb.exe?request=record;id=PE66258;type=701</t>
   </si>
   <si>
+    <t>2016.10.2</t>
+  </si>
+  <si>
+    <t>Fonseca, Harry</t>
+  </si>
+  <si>
+    <t>1946-2006</t>
+  </si>
+  <si>
+    <t>Nisenan Maidu, Hawaiian, and Portugese</t>
+  </si>
+  <si>
+    <t>http://collections.theautry.org/mwebcgi/mweb.exe?request=record;id=PE53158;type=701</t>
+  </si>
+  <si>
     <t>2002.66.1</t>
   </si>
   <si>
@@ -1567,13 +1593,13 @@
     <t>White Swan</t>
   </si>
   <si>
-    <t>1852-1904</t>
+    <t>circa 1851-August 11, 1904</t>
   </si>
   <si>
     <t>Crow</t>
   </si>
   <si>
-    <t>http://collections.theautry.org/mwebcgi/mweb.exe?request=record;id=PE215333;type=701</t>
+    <t>http://collections.theautry.org/mwebcgi/mweb.exe?request=record;id=PE49002;type=701</t>
   </si>
   <si>
     <t>2006.65.1</t>
@@ -1615,7 +1641,346 @@
     <t>90.238.3</t>
   </si>
   <si>
-    <t>ULAN_ID</t>
+    <t>PE220455</t>
+  </si>
+  <si>
+    <t>PE219666</t>
+  </si>
+  <si>
+    <t>PE220388</t>
+  </si>
+  <si>
+    <t>PE220132</t>
+  </si>
+  <si>
+    <t>PE212737</t>
+  </si>
+  <si>
+    <t>PE206414</t>
+  </si>
+  <si>
+    <t>PE220760</t>
+  </si>
+  <si>
+    <t>PE210335</t>
+  </si>
+  <si>
+    <t>PE216133</t>
+  </si>
+  <si>
+    <t>PE208059</t>
+  </si>
+  <si>
+    <t>PE205653</t>
+  </si>
+  <si>
+    <t>PE207990</t>
+  </si>
+  <si>
+    <t>PE208115</t>
+  </si>
+  <si>
+    <t>PE68167</t>
+  </si>
+  <si>
+    <t>PE209683</t>
+  </si>
+  <si>
+    <t>PE217336</t>
+  </si>
+  <si>
+    <t>PE206593</t>
+  </si>
+  <si>
+    <t>PE218873</t>
+  </si>
+  <si>
+    <t>PE63848</t>
+  </si>
+  <si>
+    <t>PE213076</t>
+  </si>
+  <si>
+    <t>PE204288</t>
+  </si>
+  <si>
+    <t>PE219700</t>
+  </si>
+  <si>
+    <t>PE215993</t>
+  </si>
+  <si>
+    <t>PE212442</t>
+  </si>
+  <si>
+    <t>PE204763</t>
+  </si>
+  <si>
+    <t>PE207686</t>
+  </si>
+  <si>
+    <t>PE211931</t>
+  </si>
+  <si>
+    <t>PE208079</t>
+  </si>
+  <si>
+    <t>PE205112</t>
+  </si>
+  <si>
+    <t>PE218133</t>
+  </si>
+  <si>
+    <t>PE53239</t>
+  </si>
+  <si>
+    <t>PE213615</t>
+  </si>
+  <si>
+    <t>PE218399</t>
+  </si>
+  <si>
+    <t>PE66258</t>
+  </si>
+  <si>
+    <t>PE53158</t>
+  </si>
+  <si>
+    <t>PE209278</t>
+  </si>
+  <si>
+    <t>PE79830</t>
+  </si>
+  <si>
+    <t>PE209483</t>
+  </si>
+  <si>
+    <t>PE220511</t>
+  </si>
+  <si>
+    <t>PE47920</t>
+  </si>
+  <si>
+    <t>PE208035</t>
+  </si>
+  <si>
+    <t>PE203114</t>
+  </si>
+  <si>
+    <t>PE211673</t>
+  </si>
+  <si>
+    <t>PE220753</t>
+  </si>
+  <si>
+    <t>PE220565</t>
+  </si>
+  <si>
+    <t>PE206979</t>
+  </si>
+  <si>
+    <t>PE56357</t>
+  </si>
+  <si>
+    <t>PE65725</t>
+  </si>
+  <si>
+    <t>PE47844</t>
+  </si>
+  <si>
+    <t>PE210352</t>
+  </si>
+  <si>
+    <t>PE213710</t>
+  </si>
+  <si>
+    <t>PE211659</t>
+  </si>
+  <si>
+    <t>PE218406</t>
+  </si>
+  <si>
+    <t>PE205292</t>
+  </si>
+  <si>
+    <t>PE214379</t>
+  </si>
+  <si>
+    <t>PE211581</t>
+  </si>
+  <si>
+    <t>PE205583</t>
+  </si>
+  <si>
+    <t>PE218154</t>
+  </si>
+  <si>
+    <t>PE209620</t>
+  </si>
+  <si>
+    <t>PE217728</t>
+  </si>
+  <si>
+    <t>PE210130</t>
+  </si>
+  <si>
+    <t>PE208641</t>
+  </si>
+  <si>
+    <t>PE208177</t>
+  </si>
+  <si>
+    <t>PE54657</t>
+  </si>
+  <si>
+    <t>PE217348</t>
+  </si>
+  <si>
+    <t>PE212028</t>
+  </si>
+  <si>
+    <t>PE220014</t>
+  </si>
+  <si>
+    <t>PE79861</t>
+  </si>
+  <si>
+    <t>PE56362</t>
+  </si>
+  <si>
+    <t>PE218227</t>
+  </si>
+  <si>
+    <t>PE205788</t>
+  </si>
+  <si>
+    <t>PE205456</t>
+  </si>
+  <si>
+    <t>PE206907</t>
+  </si>
+  <si>
+    <t>PE219054</t>
+  </si>
+  <si>
+    <t>PE214692</t>
+  </si>
+  <si>
+    <t>PE210383</t>
+  </si>
+  <si>
+    <t>PE204083</t>
+  </si>
+  <si>
+    <t>PE220544</t>
+  </si>
+  <si>
+    <t>PE218183</t>
+  </si>
+  <si>
+    <t>PE218910</t>
+  </si>
+  <si>
+    <t>PE64767</t>
+  </si>
+  <si>
+    <t>PE220752</t>
+  </si>
+  <si>
+    <t>PE210558</t>
+  </si>
+  <si>
+    <t>PE59828</t>
+  </si>
+  <si>
+    <t>PE210589</t>
+  </si>
+  <si>
+    <t>PE208989</t>
+  </si>
+  <si>
+    <t>PE206524</t>
+  </si>
+  <si>
+    <t>PE205340</t>
+  </si>
+  <si>
+    <t>PE213497</t>
+  </si>
+  <si>
+    <t>PE211680</t>
+  </si>
+  <si>
+    <t>PE218061</t>
+  </si>
+  <si>
+    <t>PE220611</t>
+  </si>
+  <si>
+    <t>PE217340</t>
+  </si>
+  <si>
+    <t>PE206066</t>
+  </si>
+  <si>
+    <t>PE212173</t>
+  </si>
+  <si>
+    <t>PE13620</t>
+  </si>
+  <si>
+    <t>PE48589</t>
+  </si>
+  <si>
+    <t>PE218913</t>
+  </si>
+  <si>
+    <t>PE217444</t>
+  </si>
+  <si>
+    <t>PE71573</t>
+  </si>
+  <si>
+    <t>PE211682</t>
+  </si>
+  <si>
+    <t>PE204111</t>
+  </si>
+  <si>
+    <t>PE215921</t>
+  </si>
+  <si>
+    <t>PE207884</t>
+  </si>
+  <si>
+    <t>PE204952</t>
+  </si>
+  <si>
+    <t>PE211648</t>
+  </si>
+  <si>
+    <t>PE205818</t>
+  </si>
+  <si>
+    <t>PE215081</t>
+  </si>
+  <si>
+    <t>PE207228</t>
+  </si>
+  <si>
+    <t>PE49002</t>
+  </si>
+  <si>
+    <t>PE218064</t>
+  </si>
+  <si>
+    <t>PE205029</t>
+  </si>
+  <si>
+    <t>PE207780</t>
+  </si>
+  <si>
+    <t>PE26890</t>
   </si>
 </sst>
 </file>
@@ -1668,6 +2033,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1683,39 +2051,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1750,7 +2118,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1794,166 +2162,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -1963,18 +2307,16 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1988,2044 +2330,2398 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>500126291</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2">
         <v>500336550</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>500126317</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2">
         <v>500126395</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E10" s="2">
         <v>500126395</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2">
         <v>500126395</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2">
         <v>500116922</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2">
         <v>500348176</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2">
         <v>500029522</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2">
         <v>500029522</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2">
         <v>500029522</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2">
         <v>500029522</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2">
         <v>500001248</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E21" s="2">
         <v>500001248</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2">
         <v>500001248</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2">
         <v>500004962</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="E24" s="2">
+        <v>500006745</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2">
         <v>500043583</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2">
         <v>500020000</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2">
         <v>500115519</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="E31" s="2">
+        <v>500004854</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="E32" s="2">
+        <v>500004854</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="2">
+        <v>500004854</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="E34" s="2">
+        <v>500004854</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E36" s="2">
         <v>500024335</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E37" s="2">
         <v>500022323</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E38" s="2">
         <v>500016091</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E39" s="2">
         <v>500016091</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E40" s="2">
         <v>500045186</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E41" s="2">
         <v>500034474</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E42" s="2">
         <v>500034474</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E43" s="2">
         <v>500037020</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E44" s="2">
         <v>500026136</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E45" s="2">
         <v>500037050</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E46" s="2">
         <v>500037050</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E47" s="2">
         <v>500037050</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E48" s="2">
         <v>500037050</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E49" s="2">
         <v>500037050</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E50" s="2">
         <v>500012108</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E51" s="2">
         <v>500012108</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E52" s="2">
         <v>500012108</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E53" s="2">
         <v>500029332</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E55" s="2">
         <v>500005451</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="E56" s="2">
-        <v>500334186</v>
+        <v>500126682</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E57" s="2">
         <v>500334186</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="E58" s="2">
+        <v>500334186</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E59" s="2">
+        <v>500139435</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="2">
         <v>500010541</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="F60" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E61" s="2">
-        <v>500126713</v>
+        <v>194</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E62" s="2">
         <v>500126713</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
+      </c>
+      <c r="E63" s="2">
+        <v>500126713</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="2">
+        <v>28</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="2">
         <v>500009694</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="2">
+        <v>28</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="2">
         <v>500010923</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E70" s="2">
-        <v>500126841</v>
-      </c>
       <c r="F70" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E71" s="2">
         <v>500126841</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E72" s="2">
         <v>500126841</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>8</v>
+        <v>233</v>
+      </c>
+      <c r="E73" s="2">
+        <v>500126841</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E74" s="2">
+        <v>500126865</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E75" s="2">
+        <v>500126865</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>237</v>
+        <v>14</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E76" s="2">
+        <v>500126865</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" s="2">
-        <v>500021440</v>
+        <v>10</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E78" s="2">
         <v>500021440</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E79" s="2">
         <v>500021440</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E80" s="2">
+        <v>500021440</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="2">
         <v>500091075</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="F81" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="2">
-        <v>500016773</v>
+        <v>258</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E83" s="2">
         <v>500016773</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E84" s="2">
+        <v>500016773</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="2">
         <v>500100917</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E85" s="2">
-        <v>500003108</v>
-      </c>
       <c r="F85" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E86" s="2">
         <v>500003108</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>265</v>
+        <v>65</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E87" s="2">
+        <v>500003108</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E88" s="2">
         <v>500000817</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E88" s="2">
+      <c r="F88" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="2">
         <v>500049226</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F89" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E91" s="2">
-        <v>500017580</v>
+        <v>287</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E92" s="2">
         <v>500017580</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>93</v>
+        <v>291</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E93" s="2">
-        <v>500343555</v>
+        <v>500017580</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E94" s="2">
         <v>500343555</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E95" s="2">
         <v>500343555</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E96" s="2">
         <v>500343555</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E97" s="2">
         <v>500343555</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E98" s="2">
         <v>500343555</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="2">
+        <v>500343555</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G99" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E100" s="2">
+        <v>33</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E101" s="2">
         <v>500127102</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F101" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>307</v>
+        <v>65</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="2">
+        <v>10</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="2">
         <v>500021099</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E104" s="2">
+      <c r="F104" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="2">
         <v>500348976</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F105" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>323</v>
@@ -4034,1434 +4730,1679 @@
         <v>324</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E109" s="2">
-        <v>500003941</v>
+        <v>10</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G109" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E110" s="2">
         <v>500003941</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>93</v>
+        <v>331</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E111" s="2">
+        <v>500003941</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="2">
         <v>500110670</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E112" s="2">
-        <v>500015257</v>
-      </c>
       <c r="F112" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E113" s="2">
         <v>500015257</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>26</v>
+        <v>340</v>
+      </c>
+      <c r="E114" s="2">
+        <v>500015257</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E115" s="2">
+        <v>28</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E116" s="2">
         <v>500000374</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" s="2">
+      <c r="F116" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="2">
         <v>500127190</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E117" s="2">
+      <c r="F117" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E118" s="2">
         <v>500001601</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E118" s="2">
+      <c r="F118" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E119" s="2">
         <v>500078593</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F119" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>363</v>
+        <v>282</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E121" s="2">
+        <v>28</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2">
         <v>500129361</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E122" s="2">
+      <c r="F122" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
         <v>500101891</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E123" s="2">
+      <c r="F123" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E124" s="2">
         <v>500127346</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F124" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>380</v>
+        <v>214</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E125" s="2">
-        <v>500011660</v>
+        <v>10</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E126" s="2">
         <v>500011660</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E127" s="2">
+        <v>500011660</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="2">
         <v>500002249</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F128" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E129" s="2">
-        <v>500024759</v>
+        <v>28</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E130" s="2">
         <v>500024759</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E131" s="2">
         <v>500024759</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E132" s="2">
         <v>500024759</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E133" s="2">
         <v>500024759</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="C134" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E134" s="2">
         <v>500024759</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="D135" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>500024759</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G135" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>409</v>
+        <v>28</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" s="2">
-        <v>500329634</v>
+        <v>416</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E138" s="2">
         <v>500329634</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>414</v>
+        <v>187</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>417</v>
+        <v>10</v>
       </c>
       <c r="E139" s="2">
+        <v>500329634</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E140" s="2">
         <v>500127431</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E140" s="2">
+      <c r="F140" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E141" s="2">
         <v>500122244</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E141" s="2">
-        <v>500002721</v>
-      </c>
       <c r="F141" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E142" s="2">
         <v>500002721</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>430</v>
+        <v>304</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>431</v>
+        <v>28</v>
       </c>
       <c r="E143" s="2">
+        <v>500002721</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E144" s="2">
         <v>500030254</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E144" s="2">
-        <v>500127466</v>
-      </c>
       <c r="F144" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E145" s="2">
         <v>500127466</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E146" s="2">
         <v>500127466</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E147" s="2">
         <v>500127466</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="C148" s="1" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E148" s="2">
         <v>500127466</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="D149" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E149" s="2">
         <v>500127466</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="E150" s="2">
         <v>500127466</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E151" s="2">
         <v>500127466</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E152" s="2">
         <v>500127466</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E153" s="2">
         <v>500127466</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E154" s="2">
+        <v>500127466</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E155" s="2">
         <v>500011277</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E155" s="2">
-        <v>500019643</v>
-      </c>
       <c r="F155" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E156" s="2">
         <v>500019643</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>8</v>
+        <v>461</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E157" s="2">
+        <v>500019643</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="2">
         <v>500127501</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E158" s="2">
-        <v>500127507</v>
-      </c>
       <c r="F158" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="E159" s="2">
         <v>500127507</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="E160" s="2">
         <v>500127507</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>468</v>
+        <v>320</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="E161" s="2">
+        <v>500127507</v>
+      </c>
       <c r="F161" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G161" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>102</v>
+        <v>475</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E162" s="2">
+        <v>476</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" s="2">
         <v>500092544</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="F163" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E164" s="2">
-        <v>500028784</v>
+        <v>483</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E165" s="2">
         <v>500028784</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E166" s="2">
         <v>500028784</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="E167" s="2">
+        <v>500028784</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="E168" s="2">
+        <v>28</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E169" s="2">
         <v>500023688</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E169" s="2">
-        <v>500336108</v>
-      </c>
       <c r="F169" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E170" s="2">
         <v>500336108</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E171" s="2">
         <v>500336108</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E172" s="2">
         <v>500336108</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>501</v>
+        <v>370</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E173" s="2">
-        <v>500080790</v>
+        <v>500336108</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G173" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E174" s="2">
+        <v>500080790</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="2">
         <v>500330306</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="F175" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>518</v>
+        <v>33</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>25</v>
+        <v>524</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>54</v>
+        <v>525</v>
       </c>
       <c r="E178" s="2">
+        <v>500056772</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E179" s="2">
         <v>500127750</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E179" s="2">
+      <c r="F179" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" s="2">
         <v>500017639</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E180" s="2">
-        <v>500029772</v>
-      </c>
       <c r="F180" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E181" s="2">
         <v>500029772</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E182" s="2">
         <v>500029772</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>530</v>
+        <v>537</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="2">
+        <v>500029772</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>
